--- a/batches/22/day_05/day_05.xlsx
+++ b/batches/22/day_05/day_05.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11202"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/22/day_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2140687-F43F-674F-9CC4-DE9B28F15227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BC43CE-56D0-134A-9D73-73CF3EC3CE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{C1255886-1A36-7049-922C-94975393B49A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{C1255886-1A36-7049-922C-94975393B49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
     <sheet name="Agenda" sheetId="2" r:id="rId2"/>
     <sheet name="Constraints" sheetId="3" r:id="rId3"/>
+    <sheet name="Filtering" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
   <si>
     <t>🔄 WHAT WE'VE LEARNED SO FAR:</t>
   </si>
@@ -326,6 +327,57 @@
   </si>
   <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t>Siraj</t>
+  </si>
+  <si>
+    <t>Rishav</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>We have to delete records for Customer_id 1 from Customers</t>
+  </si>
+  <si>
+    <t>Table1</t>
+  </si>
+  <si>
+    <t>Table2</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Orders.cust_id was dependent on customers.cust_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropped </t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>Filtering</t>
   </si>
 </sst>
 </file>
@@ -341,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +403,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,15 +462,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,8 +501,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>171384</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -465,7 +521,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -510,8 +566,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>175305</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -530,7 +586,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -575,8 +631,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>30464</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Ink 3">
@@ -595,7 +651,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Ink 3">
@@ -617,6 +673,136 @@
             <a:xfrm>
               <a:off x="866160" y="2539800"/>
               <a:ext cx="3554280" cy="1417680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538970</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>102897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>794340</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>156177</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83305CBF-893D-A0B9-1E06-AEC77C055F78}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2788560" y="13600440"/>
+            <a:ext cx="1078920" cy="53280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83305CBF-893D-A0B9-1E06-AEC77C055F78}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2784240" y="13596120"/>
+              <a:ext cx="1087560" cy="61920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>535730</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>574970</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>200817</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86814019-90FE-C9D3-F2B6-C71A741B939F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2785320" y="13564440"/>
+            <a:ext cx="39240" cy="133920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86814019-90FE-C9D3-F2B6-C71A741B939F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2781000" y="13560120"/>
+              <a:ext cx="47880" cy="142560"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -711,6 +897,62 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">45 968 24575,'0'23'0,"0"2"0,0 44 0,0-29 0,0 24 0,0 2 0,0-11 0,2 18 0,0 1 0,-1-7 0,1 1 0,3 12-742,2 5 0,1 7 0,0-8 742,-4-15 0,1 1 0,2 17 0,2 9 0,-3-27-10,-6-35 10,-2 55 0,0 8 0,2-23-140,-3-4 0,-1 15 1,0-13 139,-2 19 0,-1-11 0,-2 0 0,-2 15 0,6-44 0,0-2 0,-3 5 0,5 24 0,-6 5 0,7-7 2173,-7-14-2173,3-7 11,1-25-11,0 25 471,3-24-471,0-6 0,2 2 0,-2-6 0,2-13 0,0 5 0,0-10 0,0-3 0,2 1 0,-2-3 0,2 1 0,13 0 0,58-4 0,-3 3 0,-11-2 0,7 0 0,15 4 0,1-1 0,-12-2 0,9 0-877,0 2 1,17 1-1,6 0 1,-1 0 0,-11 0 876,4-1 0,-8 0 0,13 0 0,-22 0 0,12 0 0,6 1 0,2-1 0,-2 0 0,-6 0 0,-10 0 0,23-2 0,-11 0 0,5-1 0,3 1 0,7-2 0,-3 0 0,-15 1-2667,-5-1 1,-4-1 2666,12-2 0,8-1 0,-15 2 0,-31 4 0,-2 0 0,17-2 0,8-2 0,-11 1 0,11 4 0,-9-1 0,21 0 0,-40 0 0,36-3 0,-40 3 0,27-4 0,3-1 0,2 3 977,-11-2 0,11 0 0,-10 0-977,14 0 0,-20 2 0,11-1 477,8-1 1,14-1 0,1 0 0,-11 0-478,4-2 0,1 0 0,-1 1 0,12 0 0,0-1 0,-14 1-45,4-3 0,-8 1 45,6 0 0,3 1 0,-15 0 0,5-1 0,-2 1 0,-4 0 0,-1 1 0,-3 0 0,17-3 0,-4 0 0,-9 2 0,-5 2 0,18-5 0,-15 1 0,3-1 0,-21 4 0,1-1 0,38-6 0,6-2 0,-10 0 0,-3-1-267,-15 7 1,0-1 266,3-3 0,-5 1 4678,18 0-4678,-8 3 0,-7-3 114,-1 7-114,-40 3 0,19-1 0,-26 4 704,10 0-704,1-2 0,10 1 0,20 0 0,-15 1 0,4 2 0,1 1 0,-1 0 0,44 0 0,-27 1 0,-42-2 0,-10 0 0,-7 0 0,-7 0 0,0-3 0,-2 3 0,-2-5 0,2 4 0,0-2 0,0 1 0,4-8 0,-4 6 0,8-18 0,-7 13 0,23-45 0,-2-18 0,4-1 0,-4-11 0,-1-4 0,-10 26 0,-2 2 0,7-11 0,1-6 0,-5 1 0,1-4 0,-4 9 0,-3 21 0,-2 1 0,9-42 0,-2 4 0,-7 17-367,-5 9 0,0-3 367,2-36 0,-2 33 0,0 3 0,-2-13-21,-1 24 0,-1 2 21,0-8 0,-1 8 0,1 1 0,-1-7 0,-1 18 0,2-22 0,-1 29 0,-2-18 0,4 23 732,-7-21-732,5-3 0,0-2 0,-4-8 0,4 6 0,0-2 44,-6-30-44,5 5 0,-4-12 0,6 17 0,2 42 0,-2-9 0,2 15 0,-2 1 0,2 0 0,0 3 0,0-9 0,0 13 0,0-3 0,2 20 0,4 2 0,4 3 0,10 1 0,-2-2 0,7 2 0,-12-2 0,4 0 0,-4 0 0,29 2 0,-21-2 0,17 2 0,-24 0 0,-4-2 0,11 2 0,-11-2 0,5 0 0,-9 0 0,9 0 0,-7-2 0,7 2 0,-7-3 0,12 1 0,0 0 0,3 0 0,-3 0 0,-9 2 0,0-2 0,0 4 0,-1-2 0,1 3 0,9 1 0,-3 0 0,13 1 0,-14-1 0,2-2 0,-12-1 0,2-1 0,8 2 0,-4-2 0,14 2 0,-10-2 0,0 0 0,3 0 0,-7 0 0,25 3 0,-10-1 0,33 6 0,3 1 0,-19-3 0,10 2 0,-6-2 0,-33-6 0,-2 0 0,-3 0 0,-3 0 0,-4-1 0,-2-1 0,-2 0 0,-9-8 0,-1 1 0,-8-4 0,2 4 0,-1 1 0,4 3 0,0-2 0,4 2 0,2 0 0,-1-1 0,5 1 0,-3 1 0,1-1 0,-1 3 0,0-4 0,0 2 0,1 1 0,2 2 0,-1 1 0,2 0 0,-3 0 0,3-2 0,2 2 0,4-1 0,9 3 0,21 5 0,-6-2 0,17 6 0,-25-8 0,1 2 0,-10-2 0,-4-1 0,0 1 0,-3-3 0,-1 1 0,-2 0 0,-5 1 0,1 2 0,-9 2 0,-1 5 0,-12 8 0,4-4 0,-12 12 0,14-11 0,-11 8 0,7-1 0,-1-1 0,-11 16 0,22-21 0,-7 5 0,21-20 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-04T15:55:55.456"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 81 24575,'1'-1'0,"2"0"0,0 1 0,1 0 0,-2 0 0,4 0 0,-3 0 0,2 0 0,0 0 0,-1 0 0,2-2 0,-2 2 0,1-1 0,-1 1 0,-1-1 0,1 0 0,1 0 0,-2 1 0,1 0 0,0-1 0,-1 1 0,2-2 0,-2 2 0,1 0 0,0-1 0,-1 1 0,2-1 0,-2-1 0,2 2 0,1-1 0,-1 0 0,1 0 0,-1 0 0,-1 1 0,3 0 0,-1 0 0,-1 0 0,5 0 0,-3 0 0,10 0 0,-6 0 0,8 0 0,1 0 0,21 0 0,-8 0 0,16 0 0,2-3 0,-14 0 0,17 0 0,-16-3 0,0 5 0,21-4 0,-17 4 0,21-1 0,-31 2 0,8 0 0,14 0 0,-14 0 0,30 0 0,-26 0 0,16 0 0,-23 0 0,-1 0 0,-9 0 0,-9 0 0,14 0 0,1 0 0,10 0 0,9 0 0,8 0 0,5 0 0,1 0 0,8 0 0,21 0 0,-22 0 0,-15 0 0,2 0 0,20 0 0,-7 0 0,-21 0 0,-28 0 0,5 0 0,25 0 0,-11 0 0,20 0 0,-36 0 0,23 0 0,-13 0 0,8 0 0,-10 0 0,-17 0 0,0 0 0,-5 0 0,0 0 0,-3 0 0,-7 0 0,2 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,12-1 0,-9 2 0,18 2 0,-15 0 0,5 0 0,-9-2 0,-4-1 0,2-1 0,1 3 0,-1-2 0,2 2 0,0 0 0,-3-2 0,2 0 0,-2-1 0,-1 0 0,-1 2 0,2-2 0,-2 2 0,2-1 0,-2 0 0,1-1 0,1 0 0,0 0 0,1 0 0,-1 0 0,8 0 0,-3 0 0,17 2 0,7-1 0,4 1 0,-5-2 0,-15 0 0,-16 0 0,-6-3 0,1 3 0,-2-3 0,3 2 0,-1-1 0,1 1 0,0 0 0,-1-2 0,0 1 0,0-2 0,-4 0 0,4 3 0,-2-2 0,4 2 0,0 1 0,-2-3 0,0 3 0,-1-3 0,2 2 0,1-2 0,-1 0 0,0 0 0,0 1 0,-1-1 0,-1-2 0,0 0 0,0-1 0,3 2 0,1 2 0,0 0 0,0 0 0,0 0 0,1 2 0,4 0 0,1 3 0,5 2 0,5 2 0,-4-2 0,1 1 0,-2-4 0,-1 3 0,-1-4 0,0 4 0,-4-4 0,1 2 0,0 0 0,0 1 0,1-3 0,-2 3 0,0-2 0,-1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 2 0,0-2 0,-2 1 0,-5 1 0,-9 4 0,2-2 0,-5 4 0,7-4 0,3 0 0,2-3 0,1 1 0,0 0 0,-1-2 0,2 3 0,1-4 0,-1 3 0,0-2 0,-1 2 0,1 0 0,-1 1 0,-2 1 0,1-2 0,-1 1 0,4-3 0,1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-04T15:55:59.582"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">108 0 24575,'-1'2'0,"-1"1"0,0-1 0,0 2 0,0 0 0,0-2 0,-1 3 0,-2-1 0,1 3 0,-2 0 0,3-2 0,0-1 0,-1-1 0,4 0 0,-4 1 0,2-1 0,0 0 0,-1 0 0,0-1 0,0 4 0,1-3 0,-1 1 0,0-3 0,1 1 0,0-2 0,2 4 0,-2-1 0,0 1 0,1 0 0,-2-2 0,2 0 0,-1 2 0,-1 0 0,0 3 0,-1-2 0,0 4 0,1-1 0,-3 3 0,3-4 0,0 0 0,3-6 0,2 0 0,0-1 0,1 2 0,0-2 0,-1 1 0,1-1 0,0 1 0,0 1 0,-1 1 0,4-2 0,-3 0 0,2 1 0,0 0 0,1 3 0,1-1 0,0 1 0,-3-3 0,-1 1 0,-1 0 0,0-1 0,0 0 0,0 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,1 0 0,0 1 0,1-2 0,-1 2 0,0 1 0,-2 0 0,3 1 0,-2 1 0,1-1 0,-1 1 0,0-3 0,1 7 0,-1-4 0,0 22 0,-1-17 0,0 15 0,0-8 0,0-7 0,0 4 0,0-11 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1031,15 +1273,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7498CA-705E-BC47-BC1B-57CDC8C7DF82}">
-  <dimension ref="B2:B40"/>
+  <dimension ref="B2:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="278" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A27" zoomScale="266" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="75.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
@@ -1047,148 +1291,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1201,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E391B7-CD29-2742-BBD5-EB68A37DFA91}">
   <dimension ref="B2:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="226" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A13" zoomScale="226" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,16 +1573,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7742A09-D4D3-164E-AC9A-C6B43E928F01}">
-  <dimension ref="B2:I59"/>
+  <dimension ref="B2:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="293" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A79" zoomScale="293" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -1383,21 +1629,21 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="4">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1614,10 +1860,10 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1647,7 +1893,7 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="4">
         <v>1</v>
       </c>
       <c r="G47">
@@ -1707,10 +1953,180 @@
       </c>
       <c r="D59">
         <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381F2526-F31E-5247-AC85-802FB81EA46D}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="398" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/batches/22/day_05/day_05.xlsx
+++ b/batches/22/day_05/day_05.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11203"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/22/day_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BC43CE-56D0-134A-9D73-73CF3EC3CE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3231055B-707C-7747-AD3E-98D1A7F375EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{C1255886-1A36-7049-922C-94975393B49A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{C1255886-1A36-7049-922C-94975393B49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
     <sheet name="Agenda" sheetId="2" r:id="rId2"/>
     <sheet name="Constraints" sheetId="3" r:id="rId3"/>
     <sheet name="Filtering" sheetId="4" r:id="rId4"/>
+    <sheet name="advance_filtering" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="232">
   <si>
     <t>🔄 WHAT WE'VE LEARNED SO FAR:</t>
   </si>
@@ -378,19 +379,390 @@
   </si>
   <si>
     <t>Filtering</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>join_date</t>
+  </si>
+  <si>
+    <t>region_name</t>
+  </si>
+  <si>
+    <t>Pallavi Vyas</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Deepti Kashyap</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Gaya</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Kritika Siddiqui</t>
+  </si>
+  <si>
+    <t>Cuttack</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Sagar Kashyap</t>
+  </si>
+  <si>
+    <t>Muzaffarpur</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Manav Shah</t>
+  </si>
+  <si>
+    <t>Nikhil Chatterjee</t>
+  </si>
+  <si>
+    <t>Leh</t>
+  </si>
+  <si>
+    <t>Ladakh</t>
+  </si>
+  <si>
+    <t>Sonali Rai</t>
+  </si>
+  <si>
+    <t>Gwalior</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Jaspreet Mishra</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Yuvraj Tripathi</t>
+  </si>
+  <si>
+    <t>Meerut</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Bhoomi Bhandari</t>
+  </si>
+  <si>
+    <t>Vinay Mehta</t>
+  </si>
+  <si>
+    <t>Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Manoj Basu</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Deepti Bhatia</t>
+  </si>
+  <si>
+    <t>Naman Dev</t>
+  </si>
+  <si>
+    <t>Patiala</t>
+  </si>
+  <si>
+    <t>Dev Bansal</t>
+  </si>
+  <si>
+    <t>Rourkela</t>
+  </si>
+  <si>
+    <t>Parth Mahajan</t>
+  </si>
+  <si>
+    <t>Karimnagar</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Trisha Naidu</t>
+  </si>
+  <si>
+    <t>Aizawl</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Naman Prasad</t>
+  </si>
+  <si>
+    <t>Rajkot</t>
+  </si>
+  <si>
+    <t>Preeti Tandon</t>
+  </si>
+  <si>
+    <t>Shimla</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Pankaj Chopra</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Nisha Goswami</t>
+  </si>
+  <si>
+    <t>Udaipur</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Gauri Reddy</t>
+  </si>
+  <si>
+    <t>Ludhiana</t>
+  </si>
+  <si>
+    <t>Ira Malhotra</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Jayant Verma</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Tanisha Kaul</t>
+  </si>
+  <si>
+    <t>Amrita Bhosale</t>
+  </si>
+  <si>
+    <t>Aarav Nath</t>
+  </si>
+  <si>
+    <t>Amritsar</t>
+  </si>
+  <si>
+    <t>Gautam Dev</t>
+  </si>
+  <si>
+    <t>Rahul Modi</t>
+  </si>
+  <si>
+    <t>Howrah</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Manisha Vyas</t>
+  </si>
+  <si>
+    <t>Ira Saha</t>
+  </si>
+  <si>
+    <t>Priya Tandon</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Uma Rastogi</t>
+  </si>
+  <si>
+    <t>Ishan Fernandes</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Sana Mukherjee</t>
+  </si>
+  <si>
+    <t>Sanjay Joshi</t>
+  </si>
+  <si>
+    <t>Trichy</t>
+  </si>
+  <si>
+    <t>Tanmay Deshmukh</t>
+  </si>
+  <si>
+    <t>Aparna Kaul</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Gautam Mohanty</t>
+  </si>
+  <si>
+    <t>Prateek Pillai</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Anjali Kaul</t>
+  </si>
+  <si>
+    <t>Bhopal</t>
+  </si>
+  <si>
+    <t>Suhana Dasgupta</t>
+  </si>
+  <si>
+    <t>Sana Joshi</t>
+  </si>
+  <si>
+    <t>Omkar Patel</t>
+  </si>
+  <si>
+    <t>Pooja Duggal</t>
+  </si>
+  <si>
+    <t>Puri</t>
+  </si>
+  <si>
+    <t>Meera Bose</t>
+  </si>
+  <si>
+    <t>Udupi</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Manoj Kaur</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Pankaj Mohanty</t>
+  </si>
+  <si>
+    <t>Prakash Bhandari</t>
+  </si>
+  <si>
+    <t>Dhanbad</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Madhav Gill</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Manav</t>
+  </si>
+  <si>
+    <t>Starts with S</t>
+  </si>
+  <si>
+    <t>"S*"</t>
+  </si>
+  <si>
+    <t>"*S"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -462,13 +834,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,8 +1073,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>156177</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
@@ -716,7 +1093,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -761,8 +1138,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>200817</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
@@ -781,7 +1158,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -1275,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7498CA-705E-BC47-BC1B-57CDC8C7DF82}">
   <dimension ref="B2:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="266" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A25" zoomScale="266" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,7 +1823,7 @@
   <dimension ref="B2:B31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="226" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2112,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381F2526-F31E-5247-AC85-802FB81EA46D}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="398" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="398" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2129,4 +2506,1381 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3A5933-2D74-C543-B348-D9965D831D5A}">
+  <dimension ref="B2:L52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="272" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="6">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="7">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="10">
+        <v>45308</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="7">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="10">
+        <v>44726</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="7">
+        <v>41</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>41</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="7">
+        <v>60</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="7">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="7">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="7">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="10">
+        <v>45010</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="7">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="10">
+        <v>45258</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="7">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="10">
+        <v>45403</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="7">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="7">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="10">
+        <v>45154</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="7">
+        <v>25</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="10">
+        <v>45024</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="7">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="7">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="7">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="10">
+        <v>45587</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="6">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="7">
+        <v>60</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="10">
+        <v>44918</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="7">
+        <v>34</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="10">
+        <v>45232</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="6">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="7">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="10">
+        <v>45520</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="6">
+        <v>39</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="7">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="10">
+        <v>45514</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="7">
+        <v>46</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="10">
+        <v>45608</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="7">
+        <v>51</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="10">
+        <v>44737</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="6">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="7">
+        <v>27</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="10">
+        <v>45169</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="6">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="7">
+        <v>43</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="6">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="7">
+        <v>22</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="10">
+        <v>44819</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="6">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="7">
+        <v>65</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="10">
+        <v>45100</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="6">
+        <v>42</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="7">
+        <v>57</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="10">
+        <v>45552</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="6">
+        <v>33</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="7">
+        <v>35</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="6">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="7">
+        <v>28</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="10">
+        <v>45437</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="6">
+        <v>43</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="7">
+        <v>49</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="10">
+        <v>44934</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="7">
+        <v>56</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="10">
+        <v>45562</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="6">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="7">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="6">
+        <v>47</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="7">
+        <v>37</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" s="10">
+        <v>45655</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="6">
+        <v>35</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="7">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="10">
+        <v>45360</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="6">
+        <v>20</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="7">
+        <v>52</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="10">
+        <v>45645</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="6">
+        <v>32</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="7">
+        <v>57</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="10">
+        <v>45435</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="6">
+        <v>14</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="7">
+        <v>52</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="10">
+        <v>44849</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="6">
+        <v>45</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="7">
+        <v>62</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="10">
+        <v>45189</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="6">
+        <v>18</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="7">
+        <v>57</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" s="10">
+        <v>45420</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="6">
+        <v>15</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="7">
+        <v>23</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="10">
+        <v>44902</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="6">
+        <v>50</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="7">
+        <v>28</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="10">
+        <v>44917</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="6">
+        <v>34</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="7">
+        <v>62</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="10">
+        <v>45000</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="6">
+        <v>19</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="7">
+        <v>18</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" s="10">
+        <v>44766</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="6">
+        <v>38</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="7">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="6">
+        <v>30</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="7">
+        <v>27</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="10">
+        <v>44610</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="6">
+        <v>24</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="7">
+        <v>44</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="10">
+        <v>44929</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="6">
+        <v>36</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="7">
+        <v>64</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="10">
+        <v>45519</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="6">
+        <v>48</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="7">
+        <v>46</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" s="10">
+        <v>44939</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="6">
+        <v>21</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="7">
+        <v>63</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" s="10">
+        <v>44978</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="6">
+        <v>46</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="7">
+        <v>38</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" s="10">
+        <v>44941</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="6">
+        <v>12</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="7">
+        <v>39</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="10">
+        <v>45614</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I52">
+    <sortCondition ref="F3:F52"/>
+    <sortCondition ref="H3:H52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>